--- a/cooperativeNegotiation/expes/stats/agg-exl.xlsx
+++ b/cooperativeNegotiation/expes/stats/agg-exl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\cooperativeNegotiation\expes\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2767CD24-9B5C-4D7E-9315-569B548A96B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -69,22 +70,22 @@
     <t>Arthur</t>
   </si>
   <si>
-    <t>H1</t>
+    <t>SoiVsAutre</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>Exigence</t>
   </si>
   <si>
-    <t>H4</t>
+    <t>Concessions</t>
   </si>
   <si>
-    <t>H3</t>
+    <t>Lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
@@ -236,6 +237,24 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,31 +273,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+    <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,62 +308,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Results</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -459,16 +405,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>H1</c:v>
+                  <c:v>SoiVsAutre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>H2</c:v>
+                  <c:v>Exigence</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>H3</c:v>
+                  <c:v>Concessions</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>H4</c:v>
+                  <c:v>Lead</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,14 +461,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -592,16 +533,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>H1</c:v>
+                  <c:v>SoiVsAutre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>H2</c:v>
+                  <c:v>Exigence</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>H3</c:v>
+                  <c:v>Concessions</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>H4</c:v>
+                  <c:v>Lead</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -701,6 +642,7 @@
         <c:axId val="327589936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -738,6 +680,7 @@
         <c:crossAx val="327597152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1362,16 +1305,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>366782</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>147850</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275796</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409432</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>517477</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>32413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1695,11 +1638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58:Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -3225,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>3.296875</v>
@@ -3266,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>4.40625</v>
@@ -3474,70 +3417,70 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="14">
+      <c r="A67" s="11">
         <v>-0.28284819999999999</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15">
+      <c r="B67" s="11"/>
+      <c r="C67" s="12">
         <v>-0.3493463</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16">
+      <c r="D67" s="12"/>
+      <c r="E67" s="13">
         <v>-4.6786870000000001E-2</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="15">
+      <c r="F67" s="13"/>
+      <c r="G67" s="12">
         <v>-0.56974880000000006</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="14" t="s">
+      <c r="H67" s="12"/>
+      <c r="I67" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="14"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="17">
+      <c r="A68" s="8">
         <v>-3.200062</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9">
         <v>-3.9524020000000002</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19">
+      <c r="D68" s="9"/>
+      <c r="E68" s="10">
         <v>-0.5293331</v>
       </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="18">
+      <c r="F68" s="10"/>
+      <c r="G68" s="9">
         <v>-6.4459710000000001</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="17" t="s">
+      <c r="H68" s="9"/>
+      <c r="I68" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="17"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="10">
+      <c r="A69" s="16">
         <v>1.189E-3</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11">
+      <c r="B69" s="16"/>
+      <c r="C69" s="17">
         <v>6.7940000000000003E-5</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12">
+      <c r="D69" s="17"/>
+      <c r="E69" s="18">
         <v>0.5897</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="11">
+      <c r="F69" s="18"/>
+      <c r="G69" s="17">
         <v>6.1269999999999999E-11</v>
       </c>
-      <c r="H69" s="11"/>
-      <c r="I69" s="10" t="s">
+      <c r="H69" s="17"/>
+      <c r="I69" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4">
@@ -3572,10 +3515,10 @@
         <f t="shared" si="0"/>
         <v>1.765625</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J70" s="13"/>
+      <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="6">
@@ -3602,29 +3545,19 @@
       <c r="H71" s="6">
         <v>1.0946070000000001</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J71" s="8"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="A69:B69"/>
@@ -3633,6 +3566,16 @@
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <headerFooter>
